--- a/inst/hidap/ontologies/ontologies_potato.xlsx
+++ b/inst/hidap/ontologies/ontologies_potato.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="15" windowWidth="9105" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="10065" yWindow="75" windowWidth="9105" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="3" r:id="rId1"/>
     <sheet name="Template for submission" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Template for submission'!$U$1:$U$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Template for submission'!$A$6:$AM$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="503">
   <si>
     <t>Class value and meaning of fourth class.</t>
   </si>
@@ -830,12 +830,6 @@
   </si>
   <si>
     <t>International Potato Center (CIP). 2006. Procedures for standard evaluation trials of advanced potato clones. An International Cooperators’ Guide.Lima. Borgtoft, H.</t>
-  </si>
-  <si>
-    <t>Measured by observing the growth of the main stems of the plant</t>
-  </si>
-  <si>
-    <t>Visual categorization</t>
   </si>
   <si>
     <t xml:space="preserve">International Potato Center (CIP). 2006. Procedures for standard evaluation trials of advanced potato clones. An International Cooperators’ Guide.Lima. Borgtoft, H. </t>
@@ -1258,15 +1252,9 @@
     <t>default</t>
   </si>
   <si>
-    <t>A count of the number of tubers planted</t>
-  </si>
-  <si>
     <t>Breeding traits</t>
   </si>
   <si>
-    <t>Count the number of plant that are harvested in a plot</t>
-  </si>
-  <si>
     <t>Harvest traits</t>
   </si>
   <si>
@@ -1372,30 +1360,15 @@
     <t>9 = Very large (Tubers are over 9 cm.)</t>
   </si>
   <si>
-    <t>Count the number of non marketable tubers with weighing less of 80 g or less of 30 mm.</t>
-  </si>
-  <si>
     <t>Weigh the non-marketable tuber/plot. The unit of measure is Kilograms</t>
   </si>
   <si>
-    <t>Percentage plants emerged was estimated by multiplying by 100 the number of plants emerged divided by number of plants planted ((NPE*100)/NPP)</t>
-  </si>
-  <si>
-    <t>Percentage of plants harvested was estimated by multiplying by 100 the number of plants harvested divided by number of plants planted ((NPH*100)/NPP)</t>
-  </si>
-  <si>
     <t>Percentage plants emerged evaluated</t>
   </si>
   <si>
     <t>Percentage of plants harvested evaluated</t>
   </si>
   <si>
-    <t>Count the number of marketable tubers for category I with weighing between 200-300 g or tubers of 60 mm by plot.</t>
-  </si>
-  <si>
-    <t>Count the number of marketable tubers category II with weighing between 80-200 g or tubers between 30-60 mm by plot</t>
-  </si>
-  <si>
     <t>Count the number of marketable per plot</t>
   </si>
   <si>
@@ -1432,9 +1405,6 @@
     <t>Counting: Total number of tubers per plant method</t>
   </si>
   <si>
-    <t>Visual categorization using a scale from 0 to 7</t>
-  </si>
-  <si>
     <t>plants/plot</t>
   </si>
   <si>
@@ -1456,12 +1426,6 @@
     <t>Method ID for modification, Blank for New</t>
   </si>
   <si>
-    <t>Weigh marketable tuber category I/plot</t>
-  </si>
-  <si>
-    <t>Weigh marketable tuber category II/plot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluation: Marketable tuber weight category I   </t>
   </si>
   <si>
@@ -1492,12 +1456,6 @@
     <t>Total tuber yield  no adjusted per hectare assessed at harvest</t>
   </si>
   <si>
-    <t>It was estimated by (Total tuber weight per plot / Number plants harvested)</t>
-  </si>
-  <si>
-    <t>It was estimated by (Marketable tuber weight per plot + Non-marketable tuber weight per plot)</t>
-  </si>
-  <si>
     <t>Total tuber weight per plot assessed at harvest</t>
   </si>
   <si>
@@ -1537,12 +1495,6 @@
     <t>Evaluation: Marketable tuber yield no adjusted per hectare</t>
   </si>
   <si>
-    <t>It was estimated by [(Marketable tuber weight per plant* Plant Density)/1000)]</t>
-  </si>
-  <si>
-    <t>It was estimated by [(Marketable tuber weight per plot )/plot size]*10</t>
-  </si>
-  <si>
     <t>Data of Tuber Appearance is collected using a 1 to 9 scale</t>
   </si>
   <si>
@@ -1588,24 +1540,15 @@
     <t xml:space="preserve">Specific gravity can also be used to indirectly evaluate the dry matter content of one clone. </t>
   </si>
   <si>
-    <t>Immerse the plastic beaker or metal basket and potatoes in water and weigh again; record data as weight in water.</t>
-  </si>
-  <si>
     <t>Evaluation: Tuber weight in air</t>
   </si>
   <si>
     <t>Evaluation: Tuber weight in water</t>
   </si>
   <si>
-    <t>Place 4 kg of commercial size potatoes in plastic beaker or metal basket  and weigh; record data as weight in air</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The specific gravity  is the ratio of its weight in air to the difference between its weight in air and its weight immersed in water. [Tuber weight in air/ (Tuber weight in air-Tuber weight in water)]</t>
   </si>
   <si>
-    <t>Method of the weight in air/weight in water  measured at storage</t>
-  </si>
-  <si>
     <t>Tuber weight in air measured at storage</t>
   </si>
   <si>
@@ -1616,12 +1559,6 @@
   </si>
   <si>
     <t>Chop five tubers (about 500 g totals) into small 1-2 cm cubes, mix thoroughly, and take two sub-samples of 200 g each. It is important to sample all parts of the tuber, because dry matter content is not uniform throughout the tuber.   (Sample 1)</t>
-  </si>
-  <si>
-    <t>Determine the exact weight of 200 g  and record it as fresh weight of tuber to sub -sample 1</t>
-  </si>
-  <si>
-    <t>Determine the exact weight of 200 g  and record it as fresh weight of tuber to sub -sample 2</t>
   </si>
   <si>
     <t>Evaluation: Fresh weight of tuber sample 1</t>
@@ -1662,12 +1599,6 @@
     <t>Dry Matter Content Sample2 assessed at post harvest</t>
   </si>
   <si>
-    <t xml:space="preserve"> Weigh of sub-sample 1 it is immediately obtained after drying the tubers in the oven until constant weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weigh of sub-sample 2 it is immediately obtained after drying the tubers in the oven until constant weight</t>
-  </si>
-  <si>
     <t>Percentage Dry matter of the tubers, estimated by [(Dry Matter Content Sample 1+Dry Matter Content Sample 2)/2]</t>
   </si>
   <si>
@@ -1680,12 +1611,6 @@
     <t>Percentage of plants harvested per plot</t>
   </si>
   <si>
-    <t xml:space="preserve">It is weight the sample 1 obtened after use a carver press (pressure reaches 15,000 pounds/inch2 (psi) per two times) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is weight the sample 2 obtened after use a carver press (pressure reaches 15,000 pounds/inch2 (psi) per two times) </t>
-  </si>
-  <si>
     <t>Press method</t>
   </si>
   <si>
@@ -1707,15 +1632,6 @@
     <t>Final weight sample 1 to determined Oil Content  Percentage Sample 1</t>
   </si>
   <si>
-    <t>It was estimated: 100 - [(Final weight sample2/ Initial weight sample2)*100]</t>
-  </si>
-  <si>
-    <t>It was estimated: 100 - [(Final weight sample 1/ Initial weight sample 1)*100]</t>
-  </si>
-  <si>
-    <t>It was estimated:  [(Oil Content Sample1 Percentage+Oil Content Sample2 Percentage)/2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">The method requires a caver to press, paper towels and samples of chips, It is average oil content  sample 1 and 2 </t>
   </si>
   <si>
@@ -1758,9 +1674,6 @@
     <t>1 = Very weak (All the plants are small (&lt; 20 cm), few leaves, weak plants, very thin stems and/or light green color)</t>
   </si>
   <si>
-    <t>3 = Weak 975% of the plants are small (&lt; 20 cm) or all the plants are between 20 and 30 cm, the plants have few leaves, thin stems and/or light green color)</t>
-  </si>
-  <si>
     <t>5 = Medium ( Intermediate or normal)</t>
   </si>
   <si>
@@ -1797,215 +1710,338 @@
     <t>SES 3 pt scale</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth habit or  shape that plants have taken on 10 individuals, to breeding only use 3 scales </t>
-  </si>
-  <si>
     <t xml:space="preserve">ibfieldbook </t>
   </si>
   <si>
     <t>CIP</t>
   </si>
   <si>
-    <t xml:space="preserve">It was estimated by  the total number marketable tubers per plot, include the category I and II (MTWCI+ MTWCII)
+    <t>CROP</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>HOWTRAIT</t>
+  </si>
+  <si>
+    <t>METHODID</t>
+  </si>
+  <si>
+    <t>NMETHOD</t>
+  </si>
+  <si>
+    <t>GROWTHS</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>SCALEID</t>
+  </si>
+  <si>
+    <t>DISCRETE</t>
+  </si>
+  <si>
+    <t>CLASS1</t>
+  </si>
+  <si>
+    <t>CLASS2</t>
+  </si>
+  <si>
+    <t>CLASS3</t>
+  </si>
+  <si>
+    <t>CLASS4</t>
+  </si>
+  <si>
+    <t>CLASS5</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>ABBR</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>INSTITUTION</t>
+  </si>
+  <si>
+    <t>LENG</t>
+  </si>
+  <si>
+    <t>DATES</t>
+  </si>
+  <si>
+    <t>TRAITCLASS</t>
+  </si>
+  <si>
+    <t>BREF</t>
+  </si>
+  <si>
+    <t>DESCMETHOD</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>UNITSREP</t>
+  </si>
+  <si>
+    <t>CATEG</t>
+  </si>
+  <si>
+    <t>NSCIENT</t>
+  </si>
+  <si>
+    <t>NMTCI+NMTCII</t>
+  </si>
+  <si>
+    <t>NMTP/NPH</t>
+  </si>
+  <si>
+    <t>NMTP+NNoMTP</t>
+  </si>
+  <si>
+    <t>Number marketable tubers  + Number of non marketable tubers per plot</t>
+  </si>
+  <si>
+    <t>TNTP/NPH</t>
+  </si>
+  <si>
+    <t>MTWP + NoMTWP</t>
+  </si>
+  <si>
+    <t>TTWP/NPH</t>
+  </si>
+  <si>
+    <t>MTWCI+ MTWCII</t>
+  </si>
+  <si>
+    <t>MTWP/NPH</t>
+  </si>
+  <si>
+    <t>(NPE*100)/NPP</t>
+  </si>
+  <si>
+    <t>(NPH*100)/NPP</t>
+  </si>
+  <si>
+    <t>(TTWP/PLS)*10</t>
+  </si>
+  <si>
+    <t>(TTWPL*PLD)/1000</t>
+  </si>
+  <si>
+    <t>(MTWPL*PLD)/1000</t>
+  </si>
+  <si>
+    <t>(MTWP/PLS)*10</t>
+  </si>
+  <si>
+    <t>(TTWP/TNTP)*1000</t>
+  </si>
+  <si>
+    <t>(MTWP/NMTP)*1000</t>
+  </si>
+  <si>
+    <t>(DM1+DM2)/2</t>
+  </si>
+  <si>
+    <t>(DWTS1/FWTS1)*100</t>
+  </si>
+  <si>
+    <t>(DWTS2/FWTS2)*100</t>
+  </si>
+  <si>
+    <t>TWA/(TWA-TWW)</t>
+  </si>
+  <si>
+    <t>100-[(FWS1/IWS1)*100]</t>
+  </si>
+  <si>
+    <t>100-[(FWS2/IWS2)*100]</t>
+  </si>
+  <si>
+    <t>(OCS1+OCS2)/2</t>
+  </si>
+  <si>
+    <t>DECIMALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measure Continuous (decimals)</t>
+  </si>
+  <si>
+    <t>SYNO</t>
+  </si>
+  <si>
+    <t>IBFIELDB</t>
+  </si>
+  <si>
+    <t>Growth habit or  shape that plants have taken on 10 individuals, only use 3 scales for breeding.</t>
+  </si>
+  <si>
+    <t>Method to  weight the tubers in air and water. Measured at storage</t>
+  </si>
+  <si>
+    <t>Formula: 100 - [(Final weight sample 1/ Initial weight sample 1)*100]</t>
+  </si>
+  <si>
+    <t>Formula: 100 - [(Final weight sample2/ Initial weight sample2)*100]</t>
+  </si>
+  <si>
+    <t>Formula:  [(Oil Content Sample1 Percentage+Oil Content Sample2 Percentage)/2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the weight of sample 1 obtained after use a carver press (pressure reaches 15,000 pounds/inch2 (psi) per two times) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the weight of sample 2 obtained after use a carver press (pressure reaches 15,000 pounds/inch2 (psi) per two times) </t>
+  </si>
+  <si>
+    <t>Place 4 kg of commercial size potatoes in plastic beaker or metal basket  and weight it; record data as weight in air.</t>
+  </si>
+  <si>
+    <t>Immerse the plastic beaker or metal basket and potatoes in water and weight it again; record data as weight in water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weight of sub-sample 1 immediately obtained after drying the tubers in the oven until obtain a constant weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weight of sub-sample 2 immediately obtained after drying the tubers in the oven until obtain a constant weight</t>
+  </si>
+  <si>
+    <t>Determine the exact weight of 200 g  and record it as fresh  tuber weight of  sub -sample 2</t>
+  </si>
+  <si>
+    <t>Determine the exact weight of 200 g  and record it as fresh  tuber weight of  sub -sample 1</t>
+  </si>
+  <si>
+    <t>Formula: (Marketable tuber weight per plot + Non-marketable tuber weight per plot)</t>
+  </si>
+  <si>
+    <t>Formula: (Total tuber weight per plot / Number plants harvested)</t>
+  </si>
+  <si>
+    <t>Formula: [Total tuber weight per plot/plot size]*10</t>
+  </si>
+  <si>
+    <t>Formula: [(Total tuber weight per plant* Plant Density)/1000)]</t>
+  </si>
+  <si>
+    <t>Formula:  the Marketable tuber weight per plot divided by number of plants harvested per plot (MTWP/NPH)</t>
+  </si>
+  <si>
+    <t>Formula: [(Marketable tuber weight per plant* Plant Density)/1000)]</t>
+  </si>
+  <si>
+    <t>Formula: [(Marketable tuber weight per plot )/plot size]*10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula:  the total number marketable tubers per plot, include the category I and II (MTWCI+ MTWCII)
 </t>
   </si>
   <si>
-    <t>CROP</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>HOWTRAIT</t>
-  </si>
-  <si>
-    <t>METHODID</t>
-  </si>
-  <si>
-    <t>NMETHOD</t>
-  </si>
-  <si>
-    <t>GROWTHS</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>SCALEID</t>
-  </si>
-  <si>
-    <t>DISCRETE</t>
-  </si>
-  <si>
-    <t>CLASS1</t>
-  </si>
-  <si>
-    <t>CLASS2</t>
-  </si>
-  <si>
-    <t>CLASS3</t>
-  </si>
-  <si>
-    <t>CLASS4</t>
-  </si>
-  <si>
-    <t>CLASS5</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>ABBR</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>FORMULA</t>
-  </si>
-  <si>
-    <t>DESC</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>UPPER</t>
-  </si>
-  <si>
-    <t>INSTITUTION</t>
-  </si>
-  <si>
-    <t>LENG</t>
-  </si>
-  <si>
-    <t>DATES</t>
-  </si>
-  <si>
-    <t>TRAITCLASS</t>
-  </si>
-  <si>
-    <t>BREF</t>
-  </si>
-  <si>
-    <t>DESCMETHOD</t>
-  </si>
-  <si>
-    <t>UNITS</t>
-  </si>
-  <si>
-    <t>UNITSREP</t>
-  </si>
-  <si>
-    <t>CATEG</t>
-  </si>
-  <si>
-    <t>NSCIENT</t>
-  </si>
-  <si>
-    <t>NMTCI+NMTCII</t>
-  </si>
-  <si>
-    <t>NMTP/NPH</t>
-  </si>
-  <si>
-    <t>NMTP+NNoMTP</t>
-  </si>
-  <si>
-    <t>Number marketable tubers  + Number of non marketable tubers per plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was estimated by  the number marketable tubers per plot divided by number of plants harvested per plot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number marketable tubers per plot include the category I and II </t>
-  </si>
-  <si>
-    <t>TNTP/NPH</t>
-  </si>
-  <si>
-    <t>It was estimated by  the Total number of tubers per plot divided by number of plants harvested per plot (NMTP/NPH)</t>
-  </si>
-  <si>
-    <t>MTWP + NoMTWP</t>
-  </si>
-  <si>
-    <t>TTWP/NPH</t>
-  </si>
-  <si>
-    <t>MTWCI+ MTWCII</t>
-  </si>
-  <si>
-    <t>MTWP/NPH</t>
-  </si>
-  <si>
-    <t>It was estimated by  the Marketable tuber weight per plot divided by number of plants harvested per plot (MTWP/NPH)</t>
-  </si>
-  <si>
-    <t>(NPE*100)/NPP</t>
-  </si>
-  <si>
-    <t>(NPH*100)/NPP</t>
-  </si>
-  <si>
-    <t>(TTWP/PLS)*10</t>
-  </si>
-  <si>
-    <t>(TTWPL*PLD)/1000</t>
-  </si>
-  <si>
-    <t>(MTWPL*PLD)/1000</t>
-  </si>
-  <si>
-    <t>(MTWP/PLS)*10</t>
-  </si>
-  <si>
-    <t>It was estimated by [Total tuber weight per plot/plot size]*10</t>
-  </si>
-  <si>
-    <t>It was estimated by [(Total tuber weight per plant* Plant Density)/1000)]</t>
-  </si>
-  <si>
-    <t>(TTWP/TNTP)*1000</t>
-  </si>
-  <si>
-    <t>(MTWP/NMTP)*1000</t>
-  </si>
-  <si>
-    <t>(DM1+DM2)/2</t>
-  </si>
-  <si>
-    <t>(DWTS1/FWTS1)*100</t>
-  </si>
-  <si>
-    <t>(DWTS2/FWTS2)*100</t>
-  </si>
-  <si>
-    <t>TWA/(TWA-TWW)</t>
-  </si>
-  <si>
-    <t>100-[(FWS1/IWS1)*100]</t>
-  </si>
-  <si>
-    <t>100-[(FWS2/IWS2)*100]</t>
-  </si>
-  <si>
-    <t>(OCS1+OCS2)/2</t>
-  </si>
-  <si>
-    <t>DECIMALS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Measure Continuous (decimals)</t>
-  </si>
-  <si>
-    <t>SYNO</t>
-  </si>
-  <si>
-    <t>IBFIELDB</t>
+    <t>Marketable tuber weight category I/plot</t>
+  </si>
+  <si>
+    <t>Marketable tuber weight category II/plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula: Number marketable tubers per plot /number of plants harvested per plot </t>
+  </si>
+  <si>
+    <t>Formula:  Total number of tubers per plot divided by number of plants harvested per plot (NMTP/NPH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number marketable tubers per plot include category I and II </t>
+  </si>
+  <si>
+    <t>Count the number of non marketable tubers that weight less of 80 g or less of 30 mm.</t>
+  </si>
+  <si>
+    <t>Count the number of marketable tubers category II that has a weight between 80-200 g or tubers between 30-60 mm by plot</t>
+  </si>
+  <si>
+    <t>Count the number of marketable tubers for category I that has a weight between 200-300 g or tubers of 60 mm by plot.</t>
+  </si>
+  <si>
+    <t>Percentage of plants harvested  estimated by multiplying by 100 the number of plants harvested divided by number of plants planted ((NPH*100)/NPP)</t>
+  </si>
+  <si>
+    <t>Count the number of plants that are harvested by plot</t>
+  </si>
+  <si>
+    <t>Percentage plants emerged  estimated by multiplying by 100 the number of plants emerged divided by number of plants planted ((NPE*100)/NPP)</t>
+  </si>
+  <si>
+    <t>Visual categorization using a scale  1 to 9</t>
+  </si>
+  <si>
+    <t>Visual categorization using a scale  0 to 7</t>
+  </si>
+  <si>
+    <t>Count  the number of tubers planted</t>
+  </si>
+  <si>
+    <t>VHUALLA</t>
+  </si>
+  <si>
+    <t>Measured by observing the growth of the main stems of the plant, using a scale  1 to 3</t>
+  </si>
+  <si>
+    <t>Visual categorization using a scale  1 to 5</t>
+  </si>
+  <si>
+    <t>3 = Weak 95% of the plants are small (&lt; 20 cm) or all the plants are between 20 and 30 cm, the plants have few leaves, thin stems and/or light green color)</t>
+  </si>
+  <si>
+    <t>For Categorical: Class 6 - value = meaning</t>
+  </si>
+  <si>
+    <t>For Categorical: Class 7 - value = meaning</t>
+  </si>
+  <si>
+    <t>For Categorical: Class 8 - value = meaning</t>
+  </si>
+  <si>
+    <t>For Categorical: Class 9 - value = meaning</t>
+  </si>
+  <si>
+    <t>For Categorical: Class 10 - value = meaning</t>
+  </si>
+  <si>
+    <t>CLASS6</t>
+  </si>
+  <si>
+    <t>CLASS7</t>
+  </si>
+  <si>
+    <t>CLASS8</t>
+  </si>
+  <si>
+    <t>CLASS9</t>
+  </si>
+  <si>
+    <t>CLASS10</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,18 +2189,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF2E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2187,25 +2229,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2284,24 +2313,65 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3333,196 +3403,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" style="23" customWidth="1"/>
-    <col min="13" max="15" width="20.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="30" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="20.5703125" style="23" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="24.28515625" style="23" customWidth="1"/>
-    <col min="17" max="18" width="25.7109375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" style="23" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="23" customWidth="1"/>
-    <col min="21" max="22" width="25.7109375" style="23" customWidth="1"/>
-    <col min="23" max="23" width="17" style="23" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="23" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="23" customWidth="1"/>
-    <col min="26" max="28" width="15.7109375" style="23" customWidth="1"/>
-    <col min="29" max="33" width="18.42578125" style="23" customWidth="1"/>
-    <col min="34" max="34" width="25.7109375" style="23" customWidth="1"/>
-    <col min="35" max="16384" width="11.42578125" style="23"/>
+    <col min="17" max="17" width="33.7109375" style="23" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="23" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="47.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="18.42578125" style="23" customWidth="1"/>
+    <col min="39" max="39" width="25.7109375" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-    </row>
-    <row r="2" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-    </row>
-    <row r="3" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    </row>
+    <row r="3" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-    </row>
-    <row r="4" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    </row>
+    <row r="4" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-    </row>
-    <row r="5" spans="1:34" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:39" s="34" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>61</v>
@@ -3561,7 +3504,7 @@
         <v>79</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>87</v>
@@ -3578,165 +3521,198 @@
       <c r="S5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AB5" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" s="34" t="s">
+      <c r="AC5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AE5" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AF5" s="34" t="s">
+      <c r="AF5" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AG5" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH5" s="39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH5" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI5" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ5" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK5" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL5" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM5" s="43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="34" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="I6" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y6" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD6" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE6" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF6" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG6" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH6" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="AI6" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ6" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK6" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="AL6" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM6" s="43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z6" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA6" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB6" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="AC6" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD6" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE6" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF6" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG6" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH6" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>244</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="29">
         <v>42114</v>
@@ -3745,33 +3721,34 @@
         <v>90</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N7" s="25"/>
       <c r="O7" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -3793,18 +3770,26 @@
       <c r="AD7" s="26"/>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" s="29">
         <v>42114</v>
@@ -3813,33 +3798,34 @@
         <v>90</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N8" s="25"/>
       <c r="O8" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>237</v>
-      </c>
       <c r="R8" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
@@ -3861,18 +3847,26 @@
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="29">
         <v>42114</v>
@@ -3881,33 +3875,34 @@
         <v>90</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M9" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="25" t="s">
-        <v>239</v>
-      </c>
       <c r="P9" s="25" t="s">
-        <v>241</v>
+        <v>486</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
@@ -3923,32 +3918,40 @@
         <v>69</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="AC9" s="25" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="AD9" s="25" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="AE9" s="25" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="AF9" s="25" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="AG9" s="25"/>
-      <c r="AH9" s="1"/>
-    </row>
-    <row r="10" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="1"/>
+    </row>
+    <row r="10" spans="1:39" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E10" s="29">
         <v>42114</v>
@@ -3957,33 +3960,34 @@
         <v>90</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="25" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N10" s="25"/>
       <c r="O10" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -3996,31 +4000,39 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="AC10" s="25" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="AD10" s="25" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
       <c r="AG10" s="25"/>
-      <c r="AH10" s="37"/>
-    </row>
-    <row r="11" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="35"/>
+    </row>
+    <row r="11" spans="1:39" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E11" s="29">
         <v>42114</v>
@@ -4029,33 +4041,34 @@
         <v>90</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>242</v>
-      </c>
       <c r="P11" s="25" t="s">
-        <v>241</v>
+        <v>486</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -4071,32 +4084,40 @@
         <v>69</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="AC11" s="25" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="AD11" s="25" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="AE11" s="25" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="AF11" s="25" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="AG11" s="25"/>
-      <c r="AH11" s="37"/>
-    </row>
-    <row r="12" spans="1:34" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="35"/>
+    </row>
+    <row r="12" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E12" s="29">
         <v>42114</v>
@@ -4111,29 +4132,30 @@
         <v>94</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N12" s="25"/>
       <c r="O12" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>303</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -4149,32 +4171,40 @@
         <v>69</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="AC12" s="25" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="AD12" s="25" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="AE12" s="25" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="AF12" s="25" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="AG12" s="25"/>
-      <c r="AH12" s="37"/>
-    </row>
-    <row r="13" spans="1:34" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="35"/>
+    </row>
+    <row r="13" spans="1:39" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E13" s="29">
         <v>42114</v>
@@ -4183,33 +4213,34 @@
         <v>90</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="25" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>250</v>
-      </c>
       <c r="P13" s="25" t="s">
-        <v>241</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U13" s="25" t="s">
         <v>68</v>
@@ -4218,32 +4249,40 @@
         <v>69</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="AC13" s="25" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="AD13" s="25" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="AE13" s="25" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="AF13" s="25" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="AG13" s="25"/>
-      <c r="AH13" s="37"/>
-    </row>
-    <row r="14" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="35"/>
+    </row>
+    <row r="14" spans="1:39" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" s="29">
         <v>42114</v>
@@ -4252,33 +4291,34 @@
         <v>90</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="25" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L14" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>237</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N14" s="25"/>
       <c r="O14" s="25" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>98</v>
@@ -4292,22 +4332,25 @@
       <c r="Y14" s="23">
         <v>100</v>
       </c>
-      <c r="AG14" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH14" s="37">
+      <c r="AL14" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM14" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E15" s="29">
         <v>42114</v>
@@ -4316,33 +4359,33 @@
         <v>90</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="25" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>97</v>
@@ -4354,20 +4397,23 @@
         <v>100</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="24"/>
-    </row>
-    <row r="16" spans="1:34" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="24"/>
+    </row>
+    <row r="16" spans="1:39" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E16" s="29">
         <v>42114</v>
@@ -4376,33 +4422,33 @@
         <v>90</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="25" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="L16" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U16" s="23" t="s">
         <v>98</v>
@@ -4416,22 +4462,25 @@
       <c r="Y16" s="23">
         <v>100</v>
       </c>
-      <c r="AG16" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="AH16" s="24">
+      <c r="AL16" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM16" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E17" s="29">
         <v>42114</v>
@@ -4440,33 +4489,33 @@
         <v>90</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="25" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L17" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>289</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U17" s="25" t="s">
         <v>97</v>
@@ -4478,20 +4527,23 @@
         <v>1000</v>
       </c>
       <c r="Z17" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="24"/>
-    </row>
-    <row r="18" spans="1:34" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="24"/>
+    </row>
+    <row r="18" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E18" s="29">
         <v>42114</v>
@@ -4500,33 +4552,33 @@
         <v>90</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="25" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L18" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U18" s="25" t="s">
         <v>97</v>
@@ -4538,20 +4590,23 @@
         <v>1000</v>
       </c>
       <c r="Z18" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="24"/>
-    </row>
-    <row r="19" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="24"/>
+    </row>
+    <row r="19" spans="1:39" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E19" s="29">
         <v>42114</v>
@@ -4560,33 +4615,33 @@
         <v>90</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="25" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O19" s="25" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>283</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U19" s="25" t="s">
         <v>97</v>
@@ -4598,20 +4653,23 @@
         <v>1000</v>
       </c>
       <c r="Z19" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="1:34" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="24"/>
+    </row>
+    <row r="20" spans="1:39" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E20" s="29">
         <v>42114</v>
@@ -4620,30 +4678,30 @@
         <v>90</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O20" s="25" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U20" s="23" t="s">
         <v>97</v>
@@ -4655,22 +4713,25 @@
         <v>1000</v>
       </c>
       <c r="Z20" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG20" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH20" s="24"/>
-    </row>
-    <row r="21" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="AL20" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM20" s="24"/>
+    </row>
+    <row r="21" spans="1:39" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E21" s="29">
         <v>42114</v>
@@ -4679,30 +4740,30 @@
         <v>90</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="25" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U21" s="23" t="s">
         <v>97</v>
@@ -4714,57 +4775,61 @@
         <v>1000</v>
       </c>
       <c r="Z21" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG21" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH21" s="24"/>
-    </row>
-    <row r="22" spans="1:34" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL21" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM21" s="24"/>
+    </row>
+    <row r="22" spans="1:39" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="42">
+        <v>42114</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" s="41"/>
+      <c r="O22" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q22" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="29">
-        <v>42114</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>248</v>
-      </c>
       <c r="R22" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U22" s="25" t="s">
         <v>97</v>
@@ -4776,22 +4841,25 @@
         <v>1000</v>
       </c>
       <c r="Z22" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG22" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH22" s="24"/>
-    </row>
-    <row r="23" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="AL22" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM22" s="24"/>
+    </row>
+    <row r="23" spans="1:39" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" s="29">
         <v>42114</v>
@@ -4808,25 +4876,25 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -4842,7 +4910,7 @@
         <v>1000</v>
       </c>
       <c r="Z23" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25" t="s">
@@ -4860,20 +4928,28 @@
       <c r="AF23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AG23" s="25" t="s">
-        <v>463</v>
-      </c>
+      <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
-    </row>
-    <row r="24" spans="1:34" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM23" s="25"/>
+    </row>
+    <row r="24" spans="1:39" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E24" s="29">
         <v>42114</v>
@@ -4882,36 +4958,36 @@
         <v>90</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="25" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U24" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V24" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X24" s="23">
         <v>0</v>
@@ -4919,20 +4995,23 @@
       <c r="Y24" s="23">
         <v>1000</v>
       </c>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="24">
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E25" s="29">
         <v>42114</v>
@@ -4941,36 +5020,36 @@
         <v>90</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="25" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R25" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U25" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V25" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X25" s="23">
         <v>0</v>
@@ -4978,20 +5057,23 @@
       <c r="Y25" s="23">
         <v>1000</v>
       </c>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="24">
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E26" s="29">
         <v>42114</v>
@@ -4999,37 +5081,39 @@
       <c r="F26" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O26" s="25" t="s">
+      <c r="G26" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="39" t="s">
         <v>315</v>
       </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N26" s="41"/>
+      <c r="O26" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="P26" s="25" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U26" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V26" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X26" s="23">
         <v>0</v>
@@ -5037,20 +5121,23 @@
       <c r="Y26" s="23">
         <v>100</v>
       </c>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="24">
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E27" s="29">
         <v>42114</v>
@@ -5058,37 +5145,39 @@
       <c r="F27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O27" s="25" t="s">
-        <v>316</v>
+      <c r="G27" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39" t="s">
+        <v>304</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>324</v>
+        <v>467</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U27" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V27" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X27" s="23">
         <v>0</v>
@@ -5096,22 +5185,25 @@
       <c r="Y27" s="23">
         <v>1000</v>
       </c>
-      <c r="AG27" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH27" s="24">
+      <c r="AL27" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM27" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E28" s="29">
         <v>42114</v>
@@ -5120,36 +5212,36 @@
         <v>90</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="25" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U28" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V28" s="23" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="X28" s="23">
         <v>0</v>
@@ -5157,22 +5249,25 @@
       <c r="Y28" s="23">
         <v>1000</v>
       </c>
-      <c r="AG28" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH28" s="24">
+      <c r="AL28" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM28" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E29" s="29">
         <v>42114</v>
@@ -5180,39 +5275,41 @@
       <c r="F29" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>318</v>
+      <c r="G29" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" s="41"/>
+      <c r="O29" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U29" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V29" s="23" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X29" s="23">
         <v>0</v>
@@ -5220,22 +5317,25 @@
       <c r="Y29" s="23">
         <v>1000</v>
       </c>
-      <c r="AG29" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH29" s="24">
+      <c r="AL29" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM29" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E30" s="29">
         <v>42114</v>
@@ -5243,37 +5343,39 @@
       <c r="F30" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O30" s="25" t="s">
-        <v>319</v>
+      <c r="G30" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="Q30" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U30" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X30" s="23">
         <v>0</v>
@@ -5281,22 +5383,25 @@
       <c r="Y30" s="23">
         <v>1000</v>
       </c>
-      <c r="AG30" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH30" s="24">
+      <c r="AL30" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="AM30" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E31" s="29">
         <v>42114</v>
@@ -5304,37 +5409,39 @@
       <c r="F31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O31" s="25" t="s">
-        <v>332</v>
+      <c r="G31" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" s="41"/>
+      <c r="O31" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R31" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U31" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V31" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X31" s="23">
         <v>0</v>
@@ -5342,22 +5449,25 @@
       <c r="Y31" s="23">
         <v>1000</v>
       </c>
-      <c r="AG31" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="AH31" s="24">
+      <c r="AL31" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E32" s="29">
         <v>42114</v>
@@ -5365,37 +5475,39 @@
       <c r="F32" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>333</v>
+      <c r="G32" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" s="41"/>
+      <c r="O32" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U32" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V32" s="23" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="X32" s="23">
         <v>0</v>
@@ -5403,22 +5515,25 @@
       <c r="Y32" s="23">
         <v>1000</v>
       </c>
-      <c r="AG32" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="AH32" s="24">
+      <c r="AL32" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="AM32" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E33" s="29">
         <v>42114</v>
@@ -5426,37 +5541,39 @@
       <c r="F33" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O33" s="25" t="s">
-        <v>336</v>
+      <c r="G33" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N33" s="41"/>
+      <c r="O33" s="39" t="s">
+        <v>322</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U33" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V33" s="23" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X33" s="23">
         <v>0</v>
@@ -5464,22 +5581,25 @@
       <c r="Y33" s="23">
         <v>100</v>
       </c>
-      <c r="AG33" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="AH33" s="24">
+      <c r="AL33" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM33" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="29">
         <v>42114</v>
@@ -5487,37 +5607,39 @@
       <c r="F34" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>337</v>
+      <c r="G34" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" s="41"/>
+      <c r="O34" s="39" t="s">
+        <v>323</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U34" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V34" s="23" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X34" s="23">
         <v>0</v>
@@ -5525,22 +5647,25 @@
       <c r="Y34" s="23">
         <v>100</v>
       </c>
-      <c r="AG34" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH34" s="24">
+      <c r="AL34" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM34" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E35" s="29">
         <v>42114</v>
@@ -5549,30 +5674,30 @@
         <v>90</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>68</v>
@@ -5581,32 +5706,40 @@
         <v>69</v>
       </c>
       <c r="AB35" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC35" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD35" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE35" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF35" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="AC35" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD35" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE35" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF35" s="25" t="s">
-        <v>258</v>
-      </c>
       <c r="AG35" s="25"/>
-      <c r="AH35" s="24"/>
-    </row>
-    <row r="36" spans="1:34" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="24"/>
+    </row>
+    <row r="36" spans="1:39" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E36" s="29">
         <v>42114</v>
@@ -5615,30 +5748,30 @@
         <v>90</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O36" s="25" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>68</v>
@@ -5647,32 +5780,40 @@
         <v>69</v>
       </c>
       <c r="AB36" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC36" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD36" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE36" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF36" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="AC36" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD36" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE36" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF36" s="25" t="s">
-        <v>263</v>
-      </c>
       <c r="AG36" s="25"/>
-      <c r="AH36" s="24"/>
-    </row>
-    <row r="37" spans="1:34" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="24"/>
+    </row>
+    <row r="37" spans="1:39" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="29">
         <v>42114</v>
@@ -5681,30 +5822,30 @@
         <v>90</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="25" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O37" s="25" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U37" s="23" t="s">
         <v>68</v>
@@ -5713,32 +5854,40 @@
         <v>69</v>
       </c>
       <c r="AB37" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC37" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD37" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE37" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF37" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="AC37" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD37" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE37" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF37" s="25" t="s">
-        <v>271</v>
-      </c>
       <c r="AG37" s="25"/>
-      <c r="AH37" s="24"/>
-    </row>
-    <row r="38" spans="1:34" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="24"/>
+    </row>
+    <row r="38" spans="1:39" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E38" s="29">
         <v>42114</v>
@@ -5747,30 +5896,30 @@
         <v>90</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="25" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O38" s="25" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U38" s="23" t="s">
         <v>68</v>
@@ -5779,32 +5928,40 @@
         <v>69</v>
       </c>
       <c r="AB38" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC38" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD38" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF38" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="AC38" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD38" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE38" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF38" s="25" t="s">
-        <v>277</v>
-      </c>
       <c r="AG38" s="25"/>
-      <c r="AH38" s="24"/>
-    </row>
-    <row r="39" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="24"/>
+    </row>
+    <row r="39" spans="1:39" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E39" s="29">
         <v>42114</v>
@@ -5813,30 +5970,30 @@
         <v>90</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="25" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O39" s="25" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R39" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U39" s="23" t="s">
         <v>68</v>
@@ -5845,32 +6002,40 @@
         <v>69</v>
       </c>
       <c r="AB39" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC39" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD39" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE39" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF39" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="AC39" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD39" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE39" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF39" s="25" t="s">
-        <v>282</v>
-      </c>
       <c r="AG39" s="25"/>
-      <c r="AH39" s="24"/>
-    </row>
-    <row r="40" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="24"/>
+    </row>
+    <row r="40" spans="1:39" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E40" s="29">
         <v>42114</v>
@@ -5879,36 +6044,36 @@
         <v>90</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="25" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O40" s="25" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U40" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V40" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X40" s="23">
         <v>0</v>
@@ -5916,22 +6081,25 @@
       <c r="Y40" s="23">
         <v>2000</v>
       </c>
-      <c r="AG40" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH40" s="24">
+      <c r="AL40" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="AM40" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E41" s="29">
         <v>42114</v>
@@ -5940,36 +6108,36 @@
         <v>90</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="25" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O41" s="25" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R41" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U41" s="23" t="s">
         <v>98</v>
       </c>
       <c r="V41" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X41" s="23">
         <v>0</v>
@@ -5977,22 +6145,25 @@
       <c r="Y41" s="23">
         <v>2000</v>
       </c>
-      <c r="AG41" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH41" s="24">
+      <c r="AL41" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM41" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E42" s="29">
         <v>42114</v>
@@ -6001,30 +6172,31 @@
         <v>90</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="25" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="L42" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>396</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N42" s="25"/>
       <c r="O42" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q42" s="25" t="s">
         <v>367</v>
-      </c>
-      <c r="P42" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>395</v>
       </c>
       <c r="R42" s="25" t="s">
         <v>109</v>
@@ -6033,7 +6205,7 @@
         <v>98</v>
       </c>
       <c r="V42" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X42" s="23">
         <v>0</v>
@@ -6041,20 +6213,23 @@
       <c r="Y42" s="23">
         <v>250</v>
       </c>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="24">
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" s="29">
         <v>42114</v>
@@ -6063,30 +6238,31 @@
         <v>90</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="25" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N43" s="25"/>
       <c r="O43" s="25" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="Q43" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R43" s="25" t="s">
         <v>109</v>
@@ -6095,7 +6271,7 @@
         <v>98</v>
       </c>
       <c r="V43" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X43" s="23">
         <v>0</v>
@@ -6103,20 +6279,23 @@
       <c r="Y43" s="23">
         <v>250</v>
       </c>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="24">
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E44" s="29">
         <v>42114</v>
@@ -6125,30 +6304,31 @@
         <v>90</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="25" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N44" s="25"/>
       <c r="O44" s="25" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R44" s="25" t="s">
         <v>109</v>
@@ -6162,20 +6342,23 @@
       <c r="Y44" s="23">
         <v>200</v>
       </c>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="24">
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E45" s="29">
         <v>42114</v>
@@ -6184,30 +6367,31 @@
         <v>90</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="25" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N45" s="25"/>
       <c r="O45" s="25" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R45" s="25" t="s">
         <v>109</v>
@@ -6221,20 +6405,23 @@
       <c r="Y45" s="23">
         <v>200</v>
       </c>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="24">
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E46" s="29">
         <v>42114</v>
@@ -6243,30 +6430,31 @@
         <v>90</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="25" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N46" s="25"/>
       <c r="O46" s="25" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q46" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R46" s="25" t="s">
         <v>109</v>
@@ -6283,22 +6471,25 @@
       <c r="Y46" s="23">
         <v>100</v>
       </c>
-      <c r="AG46" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH46" s="24">
+      <c r="AL46" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM46" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E47" s="29">
         <v>42114</v>
@@ -6307,30 +6498,31 @@
         <v>90</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="25" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N47" s="25"/>
       <c r="O47" s="25" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q47" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R47" s="25" t="s">
         <v>109</v>
@@ -6347,22 +6539,25 @@
       <c r="Y47" s="23">
         <v>100</v>
       </c>
-      <c r="AG47" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH47" s="24">
+      <c r="AL47" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM47" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E48" s="29">
         <v>42114</v>
@@ -6371,32 +6566,33 @@
         <v>90</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="J48" s="26"/>
       <c r="K48" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L48" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="O48" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="P48" s="25" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="Q48" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R48" s="25" t="s">
         <v>109</v>
@@ -6427,22 +6623,30 @@
       <c r="AF48" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AG48" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH48" s="25">
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM48" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E49" s="29">
         <v>42114</v>
@@ -6451,30 +6655,31 @@
         <v>90</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
       <c r="K49" s="25" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N49" s="25"/>
       <c r="O49" s="25" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R49" s="25" t="s">
         <v>109</v>
@@ -6483,7 +6688,7 @@
         <v>98</v>
       </c>
       <c r="V49" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X49" s="23">
         <v>0</v>
@@ -6491,20 +6696,23 @@
       <c r="Y49" s="23">
         <v>4500</v>
       </c>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="24">
+      <c r="AL49" s="25"/>
+      <c r="AM49" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E50" s="29">
         <v>42114</v>
@@ -6513,30 +6721,31 @@
         <v>90</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="25" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N50" s="25"/>
       <c r="O50" s="25" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R50" s="25" t="s">
         <v>109</v>
@@ -6545,7 +6754,7 @@
         <v>98</v>
       </c>
       <c r="V50" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X50" s="23">
         <v>0</v>
@@ -6553,20 +6762,23 @@
       <c r="Y50" s="23">
         <v>4500</v>
       </c>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="24">
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E51" s="29">
         <v>42114</v>
@@ -6575,30 +6787,31 @@
         <v>90</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="25" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N51" s="25"/>
       <c r="O51" s="25" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R51" s="25" t="s">
         <v>109</v>
@@ -6612,22 +6825,25 @@
       <c r="Y51" s="23">
         <v>2</v>
       </c>
-      <c r="AG51" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="AH51" s="24">
+      <c r="AL51" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM51" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E52" s="29">
         <v>42114</v>
@@ -6636,30 +6852,31 @@
         <v>90</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="25" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N52" s="25"/>
       <c r="O52" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R52" s="25" t="s">
         <v>109</v>
@@ -6673,20 +6890,23 @@
       <c r="Y52" s="23">
         <v>11</v>
       </c>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="24">
+      <c r="AL52" s="25"/>
+      <c r="AM52" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E53" s="29">
         <v>42114</v>
@@ -6695,30 +6915,31 @@
         <v>90</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="25" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M53" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N53" s="25"/>
       <c r="O53" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R53" s="25" t="s">
         <v>109</v>
@@ -6732,20 +6953,23 @@
       <c r="Y53" s="23">
         <v>11</v>
       </c>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="24">
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E54" s="29">
         <v>42114</v>
@@ -6754,30 +6978,31 @@
         <v>90</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="25" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M54" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N54" s="25"/>
       <c r="O54" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R54" s="25" t="s">
         <v>109</v>
@@ -6791,20 +7016,23 @@
       <c r="Y54" s="23">
         <v>10</v>
       </c>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="24">
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E55" s="29">
         <v>42114</v>
@@ -6813,30 +7041,31 @@
         <v>90</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
       <c r="K55" s="25" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M55" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N55" s="25"/>
       <c r="O55" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R55" s="25" t="s">
         <v>109</v>
@@ -6850,20 +7079,23 @@
       <c r="Y55" s="23">
         <v>10</v>
       </c>
-      <c r="AG55" s="25"/>
-      <c r="AH55" s="24">
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E56" s="29">
         <v>42114</v>
@@ -6872,30 +7104,31 @@
         <v>90</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
       <c r="K56" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N56" s="25"/>
       <c r="O56" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R56" s="25" t="s">
         <v>109</v>
@@ -6912,22 +7145,25 @@
       <c r="Y56" s="23">
         <v>100</v>
       </c>
-      <c r="AG56" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH56" s="24">
+      <c r="AL56" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM56" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" s="29">
         <v>42114</v>
@@ -6936,30 +7172,31 @@
         <v>90</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
       <c r="K57" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M57" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N57" s="25"/>
       <c r="O57" s="25" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R57" s="25" t="s">
         <v>109</v>
@@ -6976,22 +7213,25 @@
       <c r="Y57" s="23">
         <v>100</v>
       </c>
-      <c r="AG57" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH57" s="24">
+      <c r="AL57" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM57" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E58" s="29">
         <v>42114</v>
@@ -7006,26 +7246,27 @@
         <v>100</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="25" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M58" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N58" s="25"/>
       <c r="O58" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R58" s="25" t="s">
         <v>109</v>
@@ -7043,22 +7284,25 @@
         <v>100</v>
       </c>
       <c r="AA58" s="25"/>
-      <c r="AG58" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH58" s="24">
+      <c r="AL58" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM58" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E59" s="29">
         <v>42114</v>
@@ -7070,32 +7314,33 @@
         <v>106</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I59" s="26" t="s">
         <v>107</v>
       </c>
       <c r="J59" s="26"/>
       <c r="K59" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N59" s="25"/>
       <c r="O59" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R59" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S59" s="25"/>
       <c r="T59" s="25"/>
@@ -7127,99 +7372,109 @@
       </c>
       <c r="AG59" s="25"/>
       <c r="AH59" s="25"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="25"/>
+      <c r="AK59" s="25"/>
+      <c r="AL59" s="25"/>
+      <c r="AM59" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="U1:U59"/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="K7:K8 K10:K11">
-    <cfRule type="duplicateValues" dxfId="29" priority="49" stopIfTrue="1"/>
+  <conditionalFormatting sqref="K7:K8 K11">
+    <cfRule type="duplicateValues" dxfId="31" priority="51" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="duplicateValues" dxfId="28" priority="48" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="50" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35 K35">
+    <cfRule type="duplicateValues" dxfId="29" priority="42" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="duplicateValues" dxfId="28" priority="41" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H38 K37:K38">
     <cfRule type="duplicateValues" dxfId="27" priority="40" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="K39">
     <cfRule type="duplicateValues" dxfId="26" priority="39" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H38 K37:K38">
+  <conditionalFormatting sqref="G39:H39">
     <cfRule type="duplicateValues" dxfId="25" priority="38" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
+  <conditionalFormatting sqref="G36:H36">
     <cfRule type="duplicateValues" dxfId="24" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
+  <conditionalFormatting sqref="G40:G41">
     <cfRule type="duplicateValues" dxfId="23" priority="36" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:H36">
+  <conditionalFormatting sqref="H40">
     <cfRule type="duplicateValues" dxfId="22" priority="35" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G41">
+  <conditionalFormatting sqref="K40">
     <cfRule type="duplicateValues" dxfId="21" priority="34" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="K41">
     <cfRule type="duplicateValues" dxfId="20" priority="33" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="H41">
     <cfRule type="duplicateValues" dxfId="19" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="G42:H44">
     <cfRule type="duplicateValues" dxfId="18" priority="31" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="G45:H45">
     <cfRule type="duplicateValues" dxfId="17" priority="30" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H44">
+  <conditionalFormatting sqref="G46:H47">
     <cfRule type="duplicateValues" dxfId="16" priority="29" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="duplicateValues" dxfId="15" priority="28" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H47">
-    <cfRule type="duplicateValues" dxfId="14" priority="27" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="duplicateValues" dxfId="13" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="duplicateValues" dxfId="12" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:O43">
-    <cfRule type="duplicateValues" dxfId="11" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="duplicateValues" dxfId="10" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="duplicateValues" dxfId="9" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="duplicateValues" dxfId="8" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
+    <cfRule type="duplicateValues" dxfId="9" priority="15" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46">
+    <cfRule type="duplicateValues" dxfId="8" priority="14" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47">
     <cfRule type="duplicateValues" dxfId="7" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="K46:K47">
     <cfRule type="duplicateValues" dxfId="6" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
-    <cfRule type="duplicateValues" dxfId="5" priority="11" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="5" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K47">
-    <cfRule type="duplicateValues" dxfId="4" priority="10" stopIfTrue="1"/>
+  <conditionalFormatting sqref="G6 N6">
+    <cfRule type="duplicateValues" dxfId="4" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H6">
     <cfRule type="duplicateValues" dxfId="3" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 N6">
-    <cfRule type="duplicateValues" dxfId="2" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8 G58:G59 H1:H4 G5 P1:P4 N5 O10 O12 G48 O48 G34 O58:O59">
-    <cfRule type="duplicateValues" dxfId="0" priority="56" stopIfTrue="1"/>
+  <conditionalFormatting sqref="G58:G59 H1:H4 G5 P1:P4 O7:O8 N5 O10 O12 G48 O48 G34 O58:O59">
+    <cfRule type="duplicateValues" dxfId="0" priority="58" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
